--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efna4-Epha1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efna4-Epha1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,19 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Efna4</t>
   </si>
   <si>
     <t>Epha1</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.828516</v>
+        <v>0.3893783333333333</v>
       </c>
       <c r="H2">
-        <v>2.485548</v>
+        <v>1.168135</v>
       </c>
       <c r="I2">
-        <v>0.4625620436231038</v>
+        <v>0.2294878876126519</v>
       </c>
       <c r="J2">
-        <v>0.4821955800271095</v>
+        <v>0.2521981668521232</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.472365</v>
+        <v>3.310473333333333</v>
       </c>
       <c r="N2">
-        <v>13.417095</v>
+        <v>9.931419999999999</v>
       </c>
       <c r="O2">
-        <v>0.1840876942178652</v>
+        <v>0.1683295705132556</v>
       </c>
       <c r="P2">
-        <v>0.2075728609309428</v>
+        <v>0.1783110568845311</v>
       </c>
       <c r="Q2">
-        <v>3.70542596034</v>
+        <v>1.289026589077778</v>
       </c>
       <c r="R2">
-        <v>33.34883364306</v>
+        <v>11.6012393017</v>
       </c>
       <c r="S2">
-        <v>0.08515198004328077</v>
+        <v>0.03862959755983196</v>
       </c>
       <c r="T2">
-        <v>0.1000907160744825</v>
+        <v>0.0449697216757434</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.828516</v>
+        <v>0.3893783333333333</v>
       </c>
       <c r="H3">
-        <v>2.485548</v>
+        <v>1.168135</v>
       </c>
       <c r="I3">
-        <v>0.4625620436231038</v>
+        <v>0.2294878876126519</v>
       </c>
       <c r="J3">
-        <v>0.4821955800271095</v>
+        <v>0.2521981668521232</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.966196333333334</v>
+        <v>3.966196333333333</v>
       </c>
       <c r="N3">
         <v>11.898589</v>
       </c>
       <c r="O3">
-        <v>0.163253208943967</v>
+        <v>0.2016715007605908</v>
       </c>
       <c r="P3">
-        <v>0.1840803959256043</v>
+        <v>0.2136300730433972</v>
       </c>
       <c r="Q3">
-        <v>3.286057121308001</v>
+        <v>1.544350917946111</v>
       </c>
       <c r="R3">
-        <v>29.57451409177201</v>
+        <v>13.899158261515</v>
       </c>
       <c r="S3">
-        <v>0.07551473795715095</v>
+        <v>0.04628116670122132</v>
       </c>
       <c r="T3">
-        <v>0.08876275328496672</v>
+        <v>0.05387711280602994</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.828516</v>
+        <v>0.3893783333333333</v>
       </c>
       <c r="H4">
-        <v>2.485548</v>
+        <v>1.168135</v>
       </c>
       <c r="I4">
-        <v>0.4625620436231038</v>
+        <v>0.2294878876126519</v>
       </c>
       <c r="J4">
-        <v>0.4821955800271095</v>
+        <v>0.2521981668521232</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.115150666666667</v>
+        <v>5.013056</v>
       </c>
       <c r="N4">
-        <v>12.345452</v>
+        <v>15.039168</v>
       </c>
       <c r="O4">
-        <v>0.1693843408545093</v>
+        <v>0.2549017854764673</v>
       </c>
       <c r="P4">
-        <v>0.1909937129554221</v>
+        <v>0.2700167690767302</v>
       </c>
       <c r="Q4">
-        <v>3.409468169744</v>
+        <v>1.951975390186667</v>
       </c>
       <c r="R4">
-        <v>30.685213527696</v>
+        <v>17.56777851168</v>
       </c>
       <c r="S4">
-        <v>0.07835076686341423</v>
+        <v>0.05849687229768783</v>
       </c>
       <c r="T4">
-        <v>0.09209632420007104</v>
+        <v>0.0680977341804844</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.828516</v>
+        <v>0.3893783333333333</v>
       </c>
       <c r="H5">
-        <v>2.485548</v>
+        <v>1.168135</v>
       </c>
       <c r="I5">
-        <v>0.4625620436231038</v>
+        <v>0.2294878876126519</v>
       </c>
       <c r="J5">
-        <v>0.4821955800271095</v>
+        <v>0.2521981668521232</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.246255999999999</v>
+        <v>3.3026905</v>
       </c>
       <c r="N5">
-        <v>16.492512</v>
+        <v>6.605381</v>
       </c>
       <c r="O5">
-        <v>0.3394253941639908</v>
+        <v>0.1679338322424817</v>
       </c>
       <c r="P5">
-        <v>0.2551519460641744</v>
+        <v>0.1185945682727144</v>
       </c>
       <c r="Q5">
-        <v>6.832155036095999</v>
+        <v>1.285996122405833</v>
       </c>
       <c r="R5">
-        <v>40.992930216576</v>
+        <v>7.715976734434999</v>
       </c>
       <c r="S5">
-        <v>0.1570053039820731</v>
+        <v>0.03853878042002459</v>
       </c>
       <c r="T5">
-        <v>0.1230331406274603</v>
+        <v>0.02990933271699753</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.828516</v>
+        <v>0.3893783333333333</v>
       </c>
       <c r="H6">
-        <v>2.485548</v>
+        <v>1.168135</v>
       </c>
       <c r="I6">
-        <v>0.4625620436231038</v>
+        <v>0.2294878876126519</v>
       </c>
       <c r="J6">
-        <v>0.4821955800271095</v>
+        <v>0.2521981668521232</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.494784666666666</v>
+        <v>4.074201666666667</v>
       </c>
       <c r="N6">
-        <v>10.484354</v>
+        <v>12.222605</v>
       </c>
       <c r="O6">
-        <v>0.1438493618196675</v>
+        <v>0.2071633110072045</v>
       </c>
       <c r="P6">
-        <v>0.1622010841238564</v>
+        <v>0.2194475327226272</v>
       </c>
       <c r="Q6">
-        <v>2.895485012888</v>
+        <v>1.586405854630556</v>
       </c>
       <c r="R6">
-        <v>26.059365115992</v>
+        <v>14.277652691675</v>
       </c>
       <c r="S6">
-        <v>0.0665392547771847</v>
+        <v>0.0475414706338862</v>
       </c>
       <c r="T6">
-        <v>0.07821264584012894</v>
+        <v>0.0553442654728679</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>2.231519</v>
       </c>
       <c r="I7">
-        <v>0.4152870872032183</v>
+        <v>0.4383967447919097</v>
       </c>
       <c r="J7">
-        <v>0.4329140288365043</v>
+        <v>0.4817807882613594</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.472365</v>
+        <v>3.310473333333333</v>
       </c>
       <c r="N7">
-        <v>13.417095</v>
+        <v>9.931419999999999</v>
       </c>
       <c r="O7">
-        <v>0.1840876942178652</v>
+        <v>0.1683295705132556</v>
       </c>
       <c r="P7">
-        <v>0.2075728609309428</v>
+        <v>0.1783110568845311</v>
       </c>
       <c r="Q7">
-        <v>3.326722490811667</v>
+        <v>2.462461380775555</v>
       </c>
       <c r="R7">
-        <v>29.940502417305</v>
+        <v>22.16215242698</v>
       </c>
       <c r="S7">
-        <v>0.07644924232169399</v>
+        <v>0.07379513576523147</v>
       </c>
       <c r="T7">
-        <v>0.08986120350273384</v>
+        <v>0.08590684154154549</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>2.231519</v>
       </c>
       <c r="I8">
-        <v>0.4152870872032183</v>
+        <v>0.4383967447919097</v>
       </c>
       <c r="J8">
-        <v>0.4329140288365043</v>
+        <v>0.4817807882613594</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.966196333333334</v>
+        <v>3.966196333333333</v>
       </c>
       <c r="N8">
         <v>11.898589</v>
       </c>
       <c r="O8">
-        <v>0.163253208943967</v>
+        <v>0.2016715007605908</v>
       </c>
       <c r="P8">
-        <v>0.1840803959256043</v>
+        <v>0.2136300730433972</v>
       </c>
       <c r="Q8">
-        <v>2.950214158521223</v>
+        <v>2.950214158521222</v>
       </c>
       <c r="R8">
         <v>26.551927426691</v>
       </c>
       <c r="S8">
-        <v>0.06779694961891845</v>
+        <v>0.08841212945074216</v>
       </c>
       <c r="T8">
-        <v>0.07969098582997217</v>
+        <v>0.1029228649871797</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>2.231519</v>
       </c>
       <c r="I9">
-        <v>0.4152870872032183</v>
+        <v>0.4383967447919097</v>
       </c>
       <c r="J9">
-        <v>0.4329140288365043</v>
+        <v>0.4817807882613594</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.115150666666667</v>
+        <v>5.013056</v>
       </c>
       <c r="N9">
-        <v>12.345452</v>
+        <v>15.039168</v>
       </c>
       <c r="O9">
-        <v>0.1693843408545093</v>
+        <v>0.2549017854764673</v>
       </c>
       <c r="P9">
-        <v>0.1909937129554221</v>
+        <v>0.2700167690767302</v>
       </c>
       <c r="Q9">
-        <v>3.061012300176444</v>
+        <v>3.728909904021333</v>
       </c>
       <c r="R9">
-        <v>27.549110701588</v>
+        <v>33.560189136192</v>
       </c>
       <c r="S9">
-        <v>0.07034312953130628</v>
+        <v>0.1117481129945289</v>
       </c>
       <c r="T9">
-        <v>0.08268385775797463</v>
+        <v>0.1300888918495725</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>2.231519</v>
       </c>
       <c r="I10">
-        <v>0.4152870872032183</v>
+        <v>0.4383967447919097</v>
       </c>
       <c r="J10">
-        <v>0.4329140288365043</v>
+        <v>0.4817807882613594</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.246255999999999</v>
+        <v>3.3026905</v>
       </c>
       <c r="N10">
-        <v>16.492512</v>
+        <v>6.605381</v>
       </c>
       <c r="O10">
-        <v>0.3394253941639908</v>
+        <v>0.1679338322424817</v>
       </c>
       <c r="P10">
-        <v>0.2551519460641744</v>
+        <v>0.1185945682727144</v>
       </c>
       <c r="Q10">
-        <v>6.133892314288</v>
+        <v>2.456672200623167</v>
       </c>
       <c r="R10">
-        <v>36.80335388572799</v>
+        <v>14.740033203739</v>
       </c>
       <c r="S10">
-        <v>0.140958983265168</v>
+        <v>0.07362164539553463</v>
       </c>
       <c r="T10">
-        <v>0.1104588569361162</v>
+        <v>0.05713658458594394</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>2.231519</v>
       </c>
       <c r="I11">
-        <v>0.4152870872032183</v>
+        <v>0.4383967447919097</v>
       </c>
       <c r="J11">
-        <v>0.4329140288365043</v>
+        <v>0.4817807882613594</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.494784666666666</v>
+        <v>4.074201666666667</v>
       </c>
       <c r="N11">
-        <v>10.484354</v>
+        <v>12.222605</v>
       </c>
       <c r="O11">
-        <v>0.1438493618196675</v>
+        <v>0.2071633110072045</v>
       </c>
       <c r="P11">
-        <v>0.1622010841238564</v>
+        <v>0.2194475327226272</v>
       </c>
       <c r="Q11">
-        <v>2.599559461525111</v>
+        <v>3.030552809666112</v>
       </c>
       <c r="R11">
-        <v>23.396035153726</v>
+        <v>27.27497528699501</v>
       </c>
       <c r="S11">
-        <v>0.05973878246613157</v>
+        <v>0.09081972118587243</v>
       </c>
       <c r="T11">
-        <v>0.07021912480970743</v>
+        <v>0.1057256052971178</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.21879</v>
+        <v>0.08827633333333333</v>
       </c>
       <c r="H12">
-        <v>0.43758</v>
+        <v>0.264829</v>
       </c>
       <c r="I12">
-        <v>0.1221508691736779</v>
+        <v>0.05202741788283973</v>
       </c>
       <c r="J12">
-        <v>0.08489039113638626</v>
+        <v>0.05717608694995093</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.472365</v>
+        <v>3.310473333333333</v>
       </c>
       <c r="N12">
-        <v>13.417095</v>
+        <v>9.931419999999999</v>
       </c>
       <c r="O12">
-        <v>0.1840876942178652</v>
+        <v>0.1683295705132556</v>
       </c>
       <c r="P12">
-        <v>0.2075728609309428</v>
+        <v>0.1783110568845311</v>
       </c>
       <c r="Q12">
-        <v>0.9785087383500001</v>
+        <v>0.2922364474644444</v>
       </c>
       <c r="R12">
-        <v>5.871052430100001</v>
+        <v>2.63012802718</v>
       </c>
       <c r="S12">
-        <v>0.02248647185289047</v>
+        <v>0.008757752907132085</v>
       </c>
       <c r="T12">
-        <v>0.01762094135372644</v>
+        <v>0.0101951284925676</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.21879</v>
+        <v>0.08827633333333333</v>
       </c>
       <c r="H13">
-        <v>0.43758</v>
+        <v>0.264829</v>
       </c>
       <c r="I13">
-        <v>0.1221508691736779</v>
+        <v>0.05202741788283973</v>
       </c>
       <c r="J13">
-        <v>0.08489039113638626</v>
+        <v>0.05717608694995093</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.966196333333334</v>
+        <v>3.966196333333333</v>
       </c>
       <c r="N13">
         <v>11.898589</v>
       </c>
       <c r="O13">
-        <v>0.163253208943967</v>
+        <v>0.2016715007605908</v>
       </c>
       <c r="P13">
-        <v>0.1840803959256043</v>
+        <v>0.2136300730433972</v>
       </c>
       <c r="Q13">
-        <v>0.8677640957700001</v>
+        <v>0.3501212695867778</v>
       </c>
       <c r="R13">
-        <v>5.206584574620001</v>
+        <v>3.151091426280999</v>
       </c>
       <c r="S13">
-        <v>0.01994152136789761</v>
+        <v>0.01049244744513069</v>
       </c>
       <c r="T13">
-        <v>0.01562665681066539</v>
+        <v>0.01221453163145365</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.21879</v>
+        <v>0.08827633333333333</v>
       </c>
       <c r="H14">
-        <v>0.43758</v>
+        <v>0.264829</v>
       </c>
       <c r="I14">
-        <v>0.1221508691736779</v>
+        <v>0.05202741788283973</v>
       </c>
       <c r="J14">
-        <v>0.08489039113638626</v>
+        <v>0.05717608694995093</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.115150666666667</v>
+        <v>5.013056</v>
       </c>
       <c r="N14">
-        <v>12.345452</v>
+        <v>15.039168</v>
       </c>
       <c r="O14">
-        <v>0.1693843408545093</v>
+        <v>0.2549017854764673</v>
       </c>
       <c r="P14">
-        <v>0.1909937129554221</v>
+        <v>0.2700167690767302</v>
       </c>
       <c r="Q14">
-        <v>0.9003538143600001</v>
+        <v>0.4425342024746666</v>
       </c>
       <c r="R14">
-        <v>5.40212288616</v>
+        <v>3.982807822272</v>
       </c>
       <c r="S14">
-        <v>0.02069044445978883</v>
+        <v>0.01326188171206613</v>
       </c>
       <c r="T14">
-        <v>0.01621353099737647</v>
+        <v>0.01543850226667595</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.21879</v>
+        <v>0.08827633333333333</v>
       </c>
       <c r="H15">
-        <v>0.43758</v>
+        <v>0.264829</v>
       </c>
       <c r="I15">
-        <v>0.1221508691736779</v>
+        <v>0.05202741788283973</v>
       </c>
       <c r="J15">
-        <v>0.08489039113638626</v>
+        <v>0.05717608694995093</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>8.246255999999999</v>
+        <v>3.3026905</v>
       </c>
       <c r="N15">
-        <v>16.492512</v>
+        <v>6.605381</v>
       </c>
       <c r="O15">
-        <v>0.3394253941639908</v>
+        <v>0.1679338322424817</v>
       </c>
       <c r="P15">
-        <v>0.2551519460641744</v>
+        <v>0.1185945682727144</v>
       </c>
       <c r="Q15">
-        <v>1.80419835024</v>
+        <v>0.2915494074748333</v>
       </c>
       <c r="R15">
-        <v>7.216793400959999</v>
+        <v>1.749296444849</v>
       </c>
       <c r="S15">
-        <v>0.04146110691674967</v>
+        <v>0.008737163666746301</v>
       </c>
       <c r="T15">
-        <v>0.02165994850059789</v>
+        <v>0.006780773347352609</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.08827633333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.264829</v>
+      </c>
+      <c r="I16">
+        <v>0.05202741788283973</v>
+      </c>
+      <c r="J16">
+        <v>0.05717608694995093</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>4.074201666666667</v>
+      </c>
+      <c r="N16">
+        <v>12.222605</v>
+      </c>
+      <c r="O16">
+        <v>0.2071633110072045</v>
+      </c>
+      <c r="P16">
+        <v>0.2194475327226272</v>
+      </c>
+      <c r="Q16">
+        <v>0.3596555843938889</v>
+      </c>
+      <c r="R16">
+        <v>3.236900259545</v>
+      </c>
+      <c r="S16">
+        <v>0.01077817215176452</v>
+      </c>
+      <c r="T16">
+        <v>0.01254715121190114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.4583675</v>
+      </c>
+      <c r="H17">
+        <v>0.9167350000000001</v>
+      </c>
+      <c r="I17">
+        <v>0.2701480291026951</v>
+      </c>
+      <c r="J17">
+        <v>0.1979213759447163</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>3.310473333333333</v>
+      </c>
+      <c r="N17">
+        <v>9.931419999999999</v>
+      </c>
+      <c r="O17">
+        <v>0.1683295705132556</v>
+      </c>
+      <c r="P17">
+        <v>0.1783110568845311</v>
+      </c>
+      <c r="Q17">
+        <v>1.517413385616667</v>
+      </c>
+      <c r="R17">
+        <v>9.1044803137</v>
+      </c>
+      <c r="S17">
+        <v>0.04547390171385914</v>
+      </c>
+      <c r="T17">
+        <v>0.03529156972474297</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.4583675</v>
+      </c>
+      <c r="H18">
+        <v>0.9167350000000001</v>
+      </c>
+      <c r="I18">
+        <v>0.2701480291026951</v>
+      </c>
+      <c r="J18">
+        <v>0.1979213759447163</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>3.966196333333333</v>
+      </c>
+      <c r="N18">
+        <v>11.898589</v>
+      </c>
+      <c r="O18">
+        <v>0.2016715007605908</v>
+      </c>
+      <c r="P18">
+        <v>0.2136300730433972</v>
+      </c>
+      <c r="Q18">
+        <v>1.817975497819167</v>
+      </c>
+      <c r="R18">
+        <v>10.907852986915</v>
+      </c>
+      <c r="S18">
+        <v>0.05448115845665629</v>
+      </c>
+      <c r="T18">
+        <v>0.04228195799991942</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.4583675</v>
+      </c>
+      <c r="H19">
+        <v>0.9167350000000001</v>
+      </c>
+      <c r="I19">
+        <v>0.2701480291026951</v>
+      </c>
+      <c r="J19">
+        <v>0.1979213759447163</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>5.013056</v>
+      </c>
+      <c r="N19">
+        <v>15.039168</v>
+      </c>
+      <c r="O19">
+        <v>0.2549017854764673</v>
+      </c>
+      <c r="P19">
+        <v>0.2700167690767302</v>
+      </c>
+      <c r="Q19">
+        <v>2.29782194608</v>
+      </c>
+      <c r="R19">
+        <v>13.78693167648</v>
+      </c>
+      <c r="S19">
+        <v>0.06886121496122563</v>
+      </c>
+      <c r="T19">
+        <v>0.05344209046381315</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.4583675</v>
+      </c>
+      <c r="H20">
+        <v>0.9167350000000001</v>
+      </c>
+      <c r="I20">
+        <v>0.2701480291026951</v>
+      </c>
+      <c r="J20">
+        <v>0.1979213759447163</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>3.3026905</v>
+      </c>
+      <c r="N20">
+        <v>6.605381</v>
+      </c>
+      <c r="O20">
+        <v>0.1679338322424817</v>
+      </c>
+      <c r="P20">
+        <v>0.1185945682727144</v>
+      </c>
+      <c r="Q20">
+        <v>1.51384598775875</v>
+      </c>
+      <c r="R20">
+        <v>6.055383951035</v>
+      </c>
+      <c r="S20">
+        <v>0.04536699379996907</v>
+      </c>
+      <c r="T20">
+        <v>0.02347240013210522</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16">
+      <c r="E21">
         <v>2</v>
       </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.21879</v>
-      </c>
-      <c r="H16">
-        <v>0.43758</v>
-      </c>
-      <c r="I16">
-        <v>0.1221508691736779</v>
-      </c>
-      <c r="J16">
-        <v>0.08489039113638626</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>3.494784666666666</v>
-      </c>
-      <c r="N16">
-        <v>10.484354</v>
-      </c>
-      <c r="O16">
-        <v>0.1438493618196675</v>
-      </c>
-      <c r="P16">
-        <v>0.1622010841238564</v>
-      </c>
-      <c r="Q16">
-        <v>0.76462393722</v>
-      </c>
-      <c r="R16">
-        <v>4.58774362332</v>
-      </c>
-      <c r="S16">
-        <v>0.01757132457635126</v>
-      </c>
-      <c r="T16">
-        <v>0.01376931347402006</v>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.4583675</v>
+      </c>
+      <c r="H21">
+        <v>0.9167350000000001</v>
+      </c>
+      <c r="I21">
+        <v>0.2701480291026951</v>
+      </c>
+      <c r="J21">
+        <v>0.1979213759447163</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>4.074201666666667</v>
+      </c>
+      <c r="N21">
+        <v>12.222605</v>
+      </c>
+      <c r="O21">
+        <v>0.2071633110072045</v>
+      </c>
+      <c r="P21">
+        <v>0.2194475327226272</v>
+      </c>
+      <c r="Q21">
+        <v>1.867481632445834</v>
+      </c>
+      <c r="R21">
+        <v>11.204889794675</v>
+      </c>
+      <c r="S21">
+        <v>0.05596476017098495</v>
+      </c>
+      <c r="T21">
+        <v>0.04343335762413553</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.01686533333333333</v>
+      </c>
+      <c r="H22">
+        <v>0.050596</v>
+      </c>
+      <c r="I22">
+        <v>0.009939920609903594</v>
+      </c>
+      <c r="J22">
+        <v>0.01092358199185028</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>3.310473333333333</v>
+      </c>
+      <c r="N22">
+        <v>9.931419999999999</v>
+      </c>
+      <c r="O22">
+        <v>0.1683295705132556</v>
+      </c>
+      <c r="P22">
+        <v>0.1783110568845311</v>
+      </c>
+      <c r="Q22">
+        <v>0.05583223625777777</v>
+      </c>
+      <c r="R22">
+        <v>0.50249012632</v>
+      </c>
+      <c r="S22">
+        <v>0.00167318256720093</v>
+      </c>
+      <c r="T22">
+        <v>0.001947795449931654</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.01686533333333333</v>
+      </c>
+      <c r="H23">
+        <v>0.050596</v>
+      </c>
+      <c r="I23">
+        <v>0.009939920609903594</v>
+      </c>
+      <c r="J23">
+        <v>0.01092358199185028</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>3.966196333333333</v>
+      </c>
+      <c r="N23">
+        <v>11.898589</v>
+      </c>
+      <c r="O23">
+        <v>0.2016715007605908</v>
+      </c>
+      <c r="P23">
+        <v>0.2136300730433972</v>
+      </c>
+      <c r="Q23">
+        <v>0.06689122322711111</v>
+      </c>
+      <c r="R23">
+        <v>0.602021009044</v>
+      </c>
+      <c r="S23">
+        <v>0.002004598706840385</v>
+      </c>
+      <c r="T23">
+        <v>0.002333605618814513</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.01686533333333333</v>
+      </c>
+      <c r="H24">
+        <v>0.050596</v>
+      </c>
+      <c r="I24">
+        <v>0.009939920609903594</v>
+      </c>
+      <c r="J24">
+        <v>0.01092358199185028</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>5.013056</v>
+      </c>
+      <c r="N24">
+        <v>15.039168</v>
+      </c>
+      <c r="O24">
+        <v>0.2549017854764673</v>
+      </c>
+      <c r="P24">
+        <v>0.2700167690767302</v>
+      </c>
+      <c r="Q24">
+        <v>0.08454686045866666</v>
+      </c>
+      <c r="R24">
+        <v>0.7609217441280001</v>
+      </c>
+      <c r="S24">
+        <v>0.002533703510958762</v>
+      </c>
+      <c r="T24">
+        <v>0.002949550316184165</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.01686533333333333</v>
+      </c>
+      <c r="H25">
+        <v>0.050596</v>
+      </c>
+      <c r="I25">
+        <v>0.009939920609903594</v>
+      </c>
+      <c r="J25">
+        <v>0.01092358199185028</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>3.3026905</v>
+      </c>
+      <c r="N25">
+        <v>6.605381</v>
+      </c>
+      <c r="O25">
+        <v>0.1679338322424817</v>
+      </c>
+      <c r="P25">
+        <v>0.1185945682727144</v>
+      </c>
+      <c r="Q25">
+        <v>0.05570097617933333</v>
+      </c>
+      <c r="R25">
+        <v>0.334205857076</v>
+      </c>
+      <c r="S25">
+        <v>0.001669248960207137</v>
+      </c>
+      <c r="T25">
+        <v>0.001295477490315081</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.01686533333333333</v>
+      </c>
+      <c r="H26">
+        <v>0.050596</v>
+      </c>
+      <c r="I26">
+        <v>0.009939920609903594</v>
+      </c>
+      <c r="J26">
+        <v>0.01092358199185028</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>4.074201666666667</v>
+      </c>
+      <c r="N26">
+        <v>12.222605</v>
+      </c>
+      <c r="O26">
+        <v>0.2071633110072045</v>
+      </c>
+      <c r="P26">
+        <v>0.2194475327226272</v>
+      </c>
+      <c r="Q26">
+        <v>0.06871276917555556</v>
+      </c>
+      <c r="R26">
+        <v>0.6184149225800001</v>
+      </c>
+      <c r="S26">
+        <v>0.00205918686469638</v>
+      </c>
+      <c r="T26">
+        <v>0.002397153116604865</v>
       </c>
     </row>
   </sheetData>
